--- a/SourceCode/2024/July 2024/sricharan/task21/input file.xlsx
+++ b/SourceCode/2024/July 2024/sricharan/task21/input file.xlsx
@@ -1209,7 +1209,7 @@
       <x:selection activeCell="A1" sqref="A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="56.497662" defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultColWidth="69.999537" defaultRowHeight="14.4"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1231,7 +1231,7 @@
       <x:selection activeCell="V11" sqref="V11 V2:V11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="56.497662" defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultColWidth="69.999537" defaultRowHeight="14.4"/>
   <x:cols>
     <x:col min="1" max="1" width="9.888889" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.222222" style="0" customWidth="1"/>
@@ -1333,6 +1333,11 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
+    <x:row r="22" spans="1:22">
+      <x:c r="B22" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="B29" s="0" t="s">
         <x:v>3</x:v>

--- a/SourceCode/2024/July 2024/sricharan/task21/input file.xlsx
+++ b/SourceCode/2024/July 2024/sricharan/task21/input file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>small</t>
   </si>
@@ -26,25 +26,19 @@
     <t>vishnu</t>
   </si>
   <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
     <t>maheshwar</t>
   </si>
   <si>
-    <t xml:space="preserve">krishna </t>
+    <t>MAHESHWAR</t>
   </si>
   <si>
-    <t>rama</t>
+    <t>krishna</t>
   </si>
   <si>
-    <t>radha</t>
-  </si>
-  <si>
-    <t>seetha</t>
-  </si>
-  <si>
-    <t>laxmana</t>
-  </si>
-  <si>
-    <t>Result_2</t>
+    <t>KRISHNA</t>
   </si>
 </sst>
 </file>
@@ -931,7 +925,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6652895" y="0"/>
+          <a:off x="7188835" y="0"/>
           <a:ext cx="6934200" cy="10363200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,7 +1202,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="93.4537037037037" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="101.268518518519" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1220,13 +1214,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="93.4537037037037" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="101.268518518519" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.1018518518519" customWidth="1"/>
     <col min="2" max="2" width="12.037037037037" customWidth="1"/>
@@ -1252,57 +1246,45 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
